--- a/exp1/stimuli/stimuli.xlsx
+++ b/exp1/stimuli/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eva_v\Documents\GitHub\leverhulmeNDL\exp1\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9F2E3D-2987-4842-84B8-7F7EE25A91A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A205438-816A-4D98-BAB4-4C16B8AD9B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
   <si>
     <t>category</t>
   </si>
@@ -57,12 +57,6 @@
     <t>fribbleID</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>dep</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>abac</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>eeee</t>
   </si>
   <si>
@@ -139,25 +130,124 @@
   </si>
   <si>
     <t>fgfg</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>wug</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>cccb</t>
+  </si>
+  <si>
+    <t>cdbb</t>
+  </si>
+  <si>
+    <t>baaa</t>
+  </si>
+  <si>
+    <t>acca</t>
+  </si>
+  <si>
+    <t>bdbc</t>
+  </si>
+  <si>
+    <t>ccca</t>
+  </si>
+  <si>
+    <t>accb</t>
+  </si>
+  <si>
+    <t>adcc</t>
+  </si>
+  <si>
+    <t>cdcc</t>
+  </si>
+  <si>
+    <t>cdab</t>
+  </si>
+  <si>
+    <t>aaab</t>
+  </si>
+  <si>
+    <t>bdba</t>
+  </si>
+  <si>
+    <t>aabb</t>
+  </si>
+  <si>
+    <t>ffee</t>
+  </si>
+  <si>
+    <t>ggff</t>
+  </si>
+  <si>
+    <t>ffgg</t>
+  </si>
+  <si>
+    <t>tob</t>
+  </si>
+  <si>
+    <t>abba</t>
+  </si>
+  <si>
+    <t>bccb</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>baab</t>
+  </si>
+  <si>
+    <t>caba</t>
+  </si>
+  <si>
+    <t>cbbc</t>
+  </si>
+  <si>
+    <t>cabc</t>
+  </si>
+  <si>
+    <t>bbbc</t>
+  </si>
+  <si>
+    <t>bcab</t>
+  </si>
+  <si>
+    <t>bacc</t>
+  </si>
+  <si>
+    <t>babc</t>
+  </si>
+  <si>
+    <t>aacc</t>
+  </si>
+  <si>
+    <t>feff</t>
+  </si>
+  <si>
+    <t>gfee</t>
+  </si>
+  <si>
+    <t>fgff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,12 +591,11 @@
     <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -517,19 +606,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10175</v>
       </c>
@@ -540,19 +626,16 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10275</v>
       </c>
@@ -563,19 +646,16 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10375</v>
       </c>
@@ -586,19 +666,16 @@
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10475</v>
       </c>
@@ -609,19 +686,16 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10575</v>
       </c>
@@ -632,19 +706,16 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10675</v>
       </c>
@@ -655,19 +726,16 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10775</v>
       </c>
@@ -678,19 +746,16 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10875</v>
       </c>
@@ -701,19 +766,16 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10975</v>
       </c>
@@ -724,19 +786,16 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11075</v>
       </c>
@@ -747,19 +806,16 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11175</v>
       </c>
@@ -770,19 +826,16 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11275</v>
       </c>
@@ -793,19 +846,16 @@
         <v>75</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>11375</v>
       </c>
@@ -816,19 +866,16 @@
         <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>11475</v>
       </c>
@@ -839,19 +886,16 @@
         <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>11575</v>
       </c>
@@ -862,19 +906,16 @@
         <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>11675</v>
       </c>
@@ -885,19 +926,16 @@
         <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>10125</v>
       </c>
@@ -908,19 +946,16 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>10225</v>
       </c>
@@ -931,19 +966,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>10325</v>
       </c>
@@ -954,19 +986,16 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>10425</v>
       </c>
@@ -977,16 +1006,813 @@
         <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20175</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20275</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>27</v>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>20375</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>20475</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>20575</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>20675</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>20775</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>20875</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>20975</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>21075</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>21175</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>21275</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>21375</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>21475</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>21575</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>21675</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>75</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>20125</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>20225</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>20325</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>20425</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>30175</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>30275</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>30375</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>30475</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>75</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>30575</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>75</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>30675</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>75</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>30775</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>75</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>30875</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>30975</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>75</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>31075</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>75</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>31175</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>75</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>31275</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4">
+        <v>75</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>31375</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>75</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>31475</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>75</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>31575</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>75</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>31675</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>75</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>30125</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>30225</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>30325</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>30425</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>25</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/exp1/stimuli/stimuli.xlsx
+++ b/exp1/stimuli/stimuli.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eva_v\Documents\GitHub\leverhulmeNDL\exp1\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A205438-816A-4D98-BAB4-4C16B8AD9B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0796ED-C3F3-4A36-951A-362AB249C129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="learningStimuli" sheetId="1" r:id="rId1"/>
+    <sheet name="Stimuli" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="90">
   <si>
     <t>category</t>
   </si>
@@ -235,6 +235,84 @@
   </si>
   <si>
     <t>fgff</t>
+  </si>
+  <si>
+    <t>caab</t>
+  </si>
+  <si>
+    <t>ccaa</t>
+  </si>
+  <si>
+    <t>bcaa</t>
+  </si>
+  <si>
+    <t>bcca</t>
+  </si>
+  <si>
+    <t>hfee</t>
+  </si>
+  <si>
+    <t>hffe</t>
+  </si>
+  <si>
+    <t>eggg</t>
+  </si>
+  <si>
+    <t>heef</t>
+  </si>
+  <si>
+    <t>caac</t>
+  </si>
+  <si>
+    <t>baca</t>
+  </si>
+  <si>
+    <t>babb</t>
+  </si>
+  <si>
+    <t>cdba</t>
+  </si>
+  <si>
+    <t>cdcb</t>
+  </si>
+  <si>
+    <t>aabc</t>
+  </si>
+  <si>
+    <t>gffg</t>
+  </si>
+  <si>
+    <t>gegf</t>
+  </si>
+  <si>
+    <t>egfe</t>
+  </si>
+  <si>
+    <t>abbc</t>
+  </si>
+  <si>
+    <t>bccc</t>
+  </si>
+  <si>
+    <t>caca</t>
+  </si>
+  <si>
+    <t>abcc</t>
+  </si>
+  <si>
+    <t>cbba</t>
+  </si>
+  <si>
+    <t>efge</t>
+  </si>
+  <si>
+    <t>gggf</t>
+  </si>
+  <si>
+    <t>egef</t>
+  </si>
+  <si>
+    <t>gefe</t>
   </si>
 </sst>
 </file>
@@ -579,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,832 +993,832 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>11675</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
+        <v>11775</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>11875</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>11975</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>12075</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>12175</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>12275</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>12375</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>12475</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>10125</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>10225</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>10325</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>25</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>10425</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>10525</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>10625</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>10725</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>10825</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>20175</v>
       </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="E34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>20275</v>
       </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>20375</v>
       </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>20475</v>
       </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>20575</v>
       </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>75</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>20675</v>
       </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>75</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>20775</v>
       </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>20875</v>
       </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>75</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>20975</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>75</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>21075</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>21175</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>21275</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>21375</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2">
-        <v>75</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>21475</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2">
-        <v>75</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>21575</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>21675</v>
-      </c>
-      <c r="B37" s="3">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1">
-        <v>75</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>20125</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>20225</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>20325</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>20425</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1">
-        <v>25</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>30175</v>
+        <v>20975</v>
       </c>
       <c r="B42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>75</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>30275</v>
+        <v>21075</v>
       </c>
       <c r="B43" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>75</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>30375</v>
+        <v>21175</v>
       </c>
       <c r="B44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>75</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>30475</v>
+      <c r="A45" s="4">
+        <v>21275</v>
       </c>
       <c r="B45" s="2">
-        <v>3</v>
-      </c>
-      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4">
         <v>75</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>30575</v>
+      <c r="A46" s="4">
+        <v>21375</v>
       </c>
       <c r="B46" s="2">
-        <v>3</v>
-      </c>
-      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
         <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>30675</v>
+      <c r="A47" s="4">
+        <v>21475</v>
       </c>
       <c r="B47" s="2">
-        <v>3</v>
-      </c>
-      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
         <v>75</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>30775</v>
+      <c r="A48" s="4">
+        <v>21575</v>
       </c>
       <c r="B48" s="2">
-        <v>3</v>
-      </c>
-      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
         <v>75</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>30875</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>21675</v>
       </c>
       <c r="B49" s="2">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>75</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="C49" s="4">
+        <v>75</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>30975</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>21775</v>
       </c>
       <c r="B50" s="2">
-        <v>3</v>
-      </c>
-      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
         <v>75</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>31075</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>21875</v>
       </c>
       <c r="B51" s="2">
-        <v>3</v>
-      </c>
-      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
         <v>75</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>31175</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>21975</v>
       </c>
       <c r="B52" s="2">
-        <v>3</v>
-      </c>
-      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4">
         <v>75</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>31275</v>
+        <v>22075</v>
       </c>
       <c r="B53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4">
         <v>75</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>31375</v>
+        <v>22175</v>
       </c>
       <c r="B54" s="2">
-        <v>3</v>
-      </c>
-      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
         <v>75</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
-        <v>31475</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>22275</v>
       </c>
       <c r="B55" s="2">
-        <v>3</v>
-      </c>
-      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4">
         <v>75</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>31575</v>
+        <v>22375</v>
       </c>
       <c r="B56" s="2">
-        <v>3</v>
-      </c>
-      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4">
         <v>75</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>31675</v>
+        <v>22475</v>
       </c>
       <c r="B57" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
         <v>75</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>30125</v>
+        <v>20125</v>
       </c>
       <c r="B58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>25</v>
@@ -1749,69 +1827,789 @@
         <v>25</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>30225</v>
+        <v>20225</v>
       </c>
       <c r="B59" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>30325</v>
+        <v>20325</v>
       </c>
       <c r="B60" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>20425</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>20525</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>20625</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>20725</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>20825</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>30175</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>30275</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>75</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>30375</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>75</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>30475</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>75</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>30575</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>75</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>30675</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>75</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>30775</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>30875</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>75</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>30975</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>31075</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>31175</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>31275</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3</v>
+      </c>
+      <c r="C77" s="4">
+        <v>75</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>31375</v>
+      </c>
+      <c r="B78" s="2">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>31475</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3</v>
+      </c>
+      <c r="C79" s="2">
+        <v>75</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>31575</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2">
+        <v>75</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>31675</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="C81" s="4">
+        <v>75</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>31775</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3</v>
+      </c>
+      <c r="C82" s="4">
+        <v>75</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>31875</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4">
+        <v>75</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>31975</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3</v>
+      </c>
+      <c r="C84" s="4">
+        <v>75</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>32075</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3</v>
+      </c>
+      <c r="C85" s="4">
+        <v>75</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>32175</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4">
+        <v>75</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>32275</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3</v>
+      </c>
+      <c r="C87" s="4">
+        <v>75</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>32375</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3</v>
+      </c>
+      <c r="C88" s="4">
+        <v>75</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>32475</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>75</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>30125</v>
+      </c>
+      <c r="B90" s="2">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>30225</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>30325</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="E92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
         <v>30425</v>
       </c>
-      <c r="B61" s="3">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93" s="4">
         <v>25</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
+        <v>30525</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="4">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
+        <v>30625</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="C95" s="4">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4">
+        <v>30725</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>30825</v>
+      </c>
+      <c r="B97" s="3">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1">
+        <v>25</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>48</v>
       </c>
     </row>
